--- a/sputnik/personal/cel/cel38.xlsx
+++ b/sputnik/personal/cel/cel38.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="A9" sqref="A9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,16 +619,28 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1000</v>
+      </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="14">
+        <v>44067</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel38.xlsx
+++ b/sputnik/personal/cel/cel38.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D10"/>
+      <selection activeCell="A11" sqref="A11:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -641,6 +647,72 @@
       <c r="D10" s="11">
         <v>1000</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2050</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel38.xlsx
+++ b/sputnik/personal/cel/cel38.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
   </si>
 </sst>
 </file>
@@ -525,7 +537,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,10 +643,10 @@
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>1000</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -643,8 +655,8 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
         <v>1000</v>
       </c>
     </row>
@@ -655,10 +667,10 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>1000</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -667,52 +679,76 @@
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>2050</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="14">
+        <v>44424</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="14">
+        <v>44424</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>170</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="14">
+        <v>44424</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>1449</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="14">
+        <v>44424</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
+        <v>431</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
